--- a/data/trans_dic/P25_8-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_8-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida</t>
+          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>21,68%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26,27%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22,68%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>16,39%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>21,01%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>17,24%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>23,17%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>27,88%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21,07%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>17,35%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>22,81%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>24,95%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>19,49%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>25,48%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,61; 28,64</t>
+          <t>14,52; 28,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,85; 20,81</t>
+          <t>8,23; 19,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,89; 28,34</t>
+          <t>12,92; 27,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,41; 31,13</t>
+          <t>18,81; 37,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,75; 27,7</t>
+          <t>15,27; 31,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,07; 27,69</t>
+          <t>15,65; 32,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,86; 35,34</t>
+          <t>14,69; 28,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,21; 24,32</t>
+          <t>15,88; 28,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,72; 26,76</t>
+          <t>20,0; 33,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,2; 21,81</t>
+          <t>15,29; 30,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,87; 28,79</t>
+          <t>10,48; 24,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,86; 25,44</t>
+          <t>20,34; 36,01</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>16,38; 25,79</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>13,58; 22,11</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>18,07; 28,34</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>20,06; 31,52</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>14,65; 24,87</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>19,84; 31,85</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>30,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>17,03%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>27,14%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>28,03%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>27,49%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>23,44%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>16,98%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>23,4%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>35,02%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>23,51%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16,91%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>23,06%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>24,8%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>21,86%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>29,66%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,79; 24,17</t>
+          <t>11,54; 23,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,2; 23,23</t>
+          <t>11,72; 22,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 25,38</t>
+          <t>14,27; 26,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,56; 24,06</t>
+          <t>13,94; 29,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,34; 37,49</t>
+          <t>10,4; 24,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,76; 22,58</t>
+          <t>17,38; 33,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,17; 34,03</t>
+          <t>23,53; 38,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,96; 34,8</t>
+          <t>12,46; 22,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,65; 28,41</t>
+          <t>21,43; 33,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,66; 21,14</t>
+          <t>20,81; 35,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,94; 27,78</t>
+          <t>21,48; 34,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,2; 27,27</t>
+          <t>28,12; 43,14</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>19,35; 28,74</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13,19; 21,13</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>18,78; 27,6</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>19,08; 30,07</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>17,07; 27,15</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>23,7; 35,39</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>25,18%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>18,07%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>16,6%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>20,37%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>24,21%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>22,1%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>23,52%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,57; 21,84</t>
+          <t>12,74; 23,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,22; 24,06</t>
+          <t>12,93; 23,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,68; 29,49</t>
+          <t>14,25; 27,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,51; 27,73</t>
+          <t>15,08; 26,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,84; 22,87</t>
+          <t>15,13; 27,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,44; 20,24</t>
+          <t>16,2; 28,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,76; 25,94</t>
+          <t>14,13; 23,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,41; 29,0</t>
+          <t>12,36; 19,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,04; 21,12</t>
+          <t>17,73; 26,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,06; 20,38</t>
+          <t>22,51; 33,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,61; 26,18</t>
+          <t>18,3; 28,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,6; 26,33</t>
+          <t>19,88; 31,27</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>14,77; 21,96</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>13,74; 19,87</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>17,1; 24,66</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>20,48; 28,13</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>18,14; 26,25</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>19,49; 27,88</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>20,07%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>18,47%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>22,68%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>21,33%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25,65%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>26,19%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>20,87%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>21,11%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>18,4%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>21,09%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>24,04%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>21,42%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>18,25%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>21,17%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>23,14%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>19,61%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>22,25%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,83; 24,71</t>
+          <t>14,96; 25,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,02; 20,73</t>
+          <t>11,57; 19,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 21,22</t>
+          <t>12,59; 21,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,19; 25,63</t>
+          <t>15,38; 25,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,26; 27,75</t>
+          <t>13,55; 25,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,24; 25,75</t>
+          <t>15,99; 27,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,44; 30,35</t>
+          <t>18,53; 28,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,72; 26,63</t>
+          <t>17,36; 25,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,88; 24,92</t>
+          <t>21,59; 30,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,7; 21,86</t>
+          <t>21,68; 32,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,34; 24,56</t>
+          <t>15,56; 26,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,84; 23,49</t>
+          <t>18,73; 29,44</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>18,08; 24,95</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>15,64; 21,48</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>18,22; 24,7</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>19,51; 26,75</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>15,72; 24,25</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>18,54; 26,37</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>10,18%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>14,78%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>20,73%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>15,8%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23,2%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23,23%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>27,45%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>16,19%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>11,99%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>18,38%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>28,89%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>16,07%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>11,98%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>18,09%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>16,85%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>21,36%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>22,75%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,03; 19,95</t>
+          <t>6,83; 19,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,2; 12,55</t>
+          <t>5,45; 12,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,44; 20,06</t>
+          <t>8,13; 19,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,37; 20,93</t>
+          <t>6,62; 16,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,86; 27,42</t>
+          <t>9,85; 20,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,36; 20,75</t>
+          <t>11,08; 21,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,58; 28,96</t>
+          <t>15,51; 26,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,69; 33,48</t>
+          <t>11,72; 20,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,87; 21,06</t>
+          <t>18,38; 28,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,3; 14,75</t>
+          <t>17,36; 30,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,67; 22,34</t>
+          <t>21,51; 33,69</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,02; 25,23</t>
+          <t>22,55; 35,01</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>12,68; 21,31</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>9,37; 14,95</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>14,56; 21,93</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>13,29; 21,04</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>17,67; 26,05</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>18,82; 27,13</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>13,54%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>10,02%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>17,18%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>22,35%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>22,41%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>15,2%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>12,06%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>18,72%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>18,43%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>12,83%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>19,12%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,16; 15,96</t>
+          <t>8,09; 17,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,66; 17,09</t>
+          <t>4,63; 15,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,46; 22,74</t>
+          <t>8,91; 23,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,02; 16,43</t>
+          <t>8,21; 20,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,49; 23,13</t>
+          <t>5,84; 16,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,49; 19,49</t>
+          <t>9,36; 21,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,64; 40,57</t>
+          <t>12,29; 23,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,62; 22,29</t>
+          <t>10,84; 19,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,92; 18,52</t>
+          <t>16,78; 33,09</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,05; 15,77</t>
+          <t>15,95; 29,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,74; 28,04</t>
+          <t>9,26; 22,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,3; 17,86</t>
+          <t>16,64; 30,2</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>11,65; 19,95</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>8,97; 15,67</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>14,44; 25,99</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>14,18; 23,97</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 17,17</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>14,79; 23,77</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>17,65%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>24,2%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25,11%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>21,62%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>18,81%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>15,69%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>21,0%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>26,81%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>19,16%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>15,62%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>20,68%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>22,1%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>19,45%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,17; 18,75</t>
+          <t>14,38; 18,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,02; 16,24</t>
+          <t>11,58; 15,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,8; 19,79</t>
+          <t>14,93; 19,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,74; 19,9</t>
+          <t>16,38; 21,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,97; 23,76</t>
+          <t>14,82; 19,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,59; 19,49</t>
+          <t>17,88; 23,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,49; 28,11</t>
+          <t>19,38; 24,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,4; 24,53</t>
+          <t>15,75; 19,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,29; 20,36</t>
+          <t>21,91; 26,89</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,49; 17,16</t>
+          <t>22,64; 27,79</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>19,29; 23,08</t>
+          <t>19,11; 24,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,66; 21,22</t>
+          <t>24,2; 29,5</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>17,59; 20,87</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>14,33; 17,01</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>18,94; 22,3</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>20,3; 24,0</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>17,76; 21,34</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>21,75; 25,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>105695</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>68695</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>97563</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>128409</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9355</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10297</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>98168</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>111607</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>134998</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>108236</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6131</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10750</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>203863</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>180302</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>232562</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>236645</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>15486</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>21047</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>72898; 142822</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>43144; 103122</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>65331; 140613</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>88641; 175595</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6426; 13261</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6894; 14377</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>68397; 132510</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>81754; 148935</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>102789; 174637</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>72953; 143843</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3917; 9288</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7840; 13881</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>158502; 249587</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>141112; 229740</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>184188; 288898</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>190285; 298955</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>11644; 19761</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>16388; 26313</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>97443</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>95001</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>115892</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>126839</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8281</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12063</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>158744</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>86518</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>140433</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>141593</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12802</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16113</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>256187</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>181519</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>256325</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>268432</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>21082</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>28176</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>66183; 131961</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>66270; 129143</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>84795; 158258</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>80438; 172624</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5185; 12290</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8517; 16465</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>121482; 197228</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>63278; 113692</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>110858; 172401</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>105137; 177589</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10000; 16256</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12937; 19846</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>210878; 313189</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>141642; 226787</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>208829; 306860</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>206459; 325458</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>16461; 26183</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>22522; 33621</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>121799</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>118189</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>129844</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>139142</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12412</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13397</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>130640</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>113374</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>154060</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>198965</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12659</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13663</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>252439</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>231563</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>283903</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>338107</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>25071</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>27060</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>87475; 158009</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>88049; 158399</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>96914; 185121</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>102392; 181661</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9073; 16603</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9844; 17596</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>100357; 168781</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>88351; 140893</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>126527; 185960</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>161466; 241585</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9792; 15404</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10786; 16968</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>206295; 306717</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>191773; 277191</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>238323; 343659</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>285941; 392763</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>20580; 29775</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>22414; 32068</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>125483</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>97226</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>104692</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>131699</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10764</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11721</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>158910</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>143609</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>169263</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>173256</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10895</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>12814</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>284393</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>240834</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>273955</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>304955</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>21659</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>24535</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>96409; 162735</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>74749; 125886</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>79905; 134323</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>100943; 168102</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7894; 14862</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9107; 15472</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>126677; 192915</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>116877; 173800</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>142452; 198388</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>143402; 211763</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8126; 13870</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>9981; 15693</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>240077; 331380</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>206316; 283349</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>235783; 319660</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>257062; 352399</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>17370; 26790</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>20440; 29076</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>55274</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40970</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>62007</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>50397</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6573</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7336</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>105011</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>79478</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>119486</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>120088</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13180</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13535</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>160285</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>120448</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>181493</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>170485</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>19753</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>20871</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>33668; 96908</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>27370; 61338</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>39670; 95293</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>32791; 83033</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4383; 9111</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4971; 9830</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>78276; 135321</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>58976; 105613</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>94705; 148427</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>89738; 158295</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10326; 16176</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10564; 16400</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>126526; 212617</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>94229; 150286</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>146000; 219916</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>134526; 212930</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>16342; 24096</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>17266; 24883</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>65256</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>45456</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>73524</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>76707</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6675</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>125508</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>101646</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>155469</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>157743</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>9494</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>14266</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>190764</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>147102</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>228994</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>234450</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>14190</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>20941</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>43440; 95481</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>24506; 82118</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>47412; 126599</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>46493; 114968</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2737; 7557</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4290; 9978</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>88239; 167145</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>74913; 135845</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>115874; 228483</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>112592; 204687</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>5901; 14018</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>10596; 19229</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>146247; 250397</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>109398; 191140</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>176626; 317875</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>180415; 304972</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>10326; 18981</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>16193; 26032</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>480.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>479.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>605.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>519.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>409.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>570950</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>465536</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>583522</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>653192</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>52080</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>61489</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>776981</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>636233</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>873709</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>899882</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>65162</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>81142</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1347931</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1101769</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1457232</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1553074</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>117242</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>142631</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>494013; 649896</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>399127; 531887</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>512713; 681812</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>564252; 745142</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>44677; 59843</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>53915; 70653</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>697475; 868399</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>567881; 707742</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>791087; 970866</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>811416; 995986</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>57607; 72503</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>73238; 89278</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1237149; 1468081</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1010786; 1199505</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1334525; 1571357</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1426925; 1686763</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>107047; 128636</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>131396; 156097</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
